--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1383833333333333</v>
+        <v>0.4424383333333333</v>
       </c>
       <c r="N2">
-        <v>0.41515</v>
+        <v>1.327315</v>
       </c>
       <c r="O2">
-        <v>0.02308080968692381</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="P2">
-        <v>0.02308080968692382</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="Q2">
-        <v>0.001955264244444445</v>
+        <v>0.006251358691111111</v>
       </c>
       <c r="R2">
-        <v>0.0175973782</v>
+        <v>0.05626222822</v>
       </c>
       <c r="S2">
-        <v>0.02308080968692381</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="T2">
-        <v>0.02308080968692382</v>
+        <v>0.06873529267527652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,10 +620,10 @@
         <v>17.571654</v>
       </c>
       <c r="O3">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603505</v>
       </c>
       <c r="P3">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603506</v>
       </c>
       <c r="Q3">
         <v>0.082758585528</v>
@@ -629,10 +632,72 @@
         <v>0.744827269752</v>
       </c>
       <c r="S3">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603505</v>
       </c>
       <c r="T3">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01412933333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.042388</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.1371873333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.411562</v>
+      </c>
+      <c r="O4">
+        <v>0.02131282666437293</v>
+      </c>
+      <c r="P4">
+        <v>0.02131282666437293</v>
+      </c>
+      <c r="Q4">
+        <v>0.001938365561777778</v>
+      </c>
+      <c r="R4">
+        <v>0.017445290056</v>
+      </c>
+      <c r="S4">
+        <v>0.02131282666437293</v>
+      </c>
+      <c r="T4">
+        <v>0.02131282666437293</v>
       </c>
     </row>
   </sheetData>
